--- a/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,43; 100,0</t>
+          <t>88,28; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,9; 100,0</t>
+          <t>91,35; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,81; 100,0</t>
+          <t>93,77; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,91; 100,0</t>
+          <t>94,98; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,39; 99,66</t>
+          <t>89,25; 99,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 99,83</t>
+          <t>94,66; 99,83</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,0; 100,0</t>
+          <t>89,12; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,83; 100,0</t>
+          <t>77,09; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,25; 100,0</t>
+          <t>80,05; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 100,0</t>
+          <t>86,53; 100,0</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,65; 100,0</t>
+          <t>78,31; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,55; 100,0</t>
+          <t>85,35; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>85,51; 100,0</t>
+          <t>82,61; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,85; 100,0</t>
+          <t>92,46; 100,0</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,89; 100,0</t>
+          <t>92,74; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,59; 100,0</t>
+          <t>92,0; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,74; 100,0</t>
+          <t>88,03; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>94,89; 100,0</t>
+          <t>95,26; 100,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,67; 100,0</t>
+          <t>96,33; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 100,0</t>
+          <t>95,47; 100,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>95,3; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,71; 100,0</t>
+          <t>84,79; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,12; 100,0</t>
+          <t>91,0; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>92,97; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>96,73; 100,0</t>
+          <t>96,77; 100,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88,04; 100,0</t>
+          <t>90,46; 100,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,24; 100,0</t>
+          <t>94,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -1844,22 +1844,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,13; 99,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,77; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,22; 99,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,78</t>
+          <t>97,65; 99,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,88; 100,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,68; 99,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,71; 99,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,25; 100,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>98,07; 99,68</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,56</t>
+          <t>98,08; 99,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,28; 100,0</t>
+          <t>88,15; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,35; 100,0</t>
+          <t>89,47; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,77; 100,0</t>
+          <t>92,38; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,98; 100,0</t>
+          <t>94,94; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,31; 100,0</t>
+          <t>80,96; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,61; 100,0</t>
+          <t>84,41; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,74; 100,0</t>
+          <t>91,67; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,0; 100,0</t>
+          <t>93,68; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>88,03; 100,0</t>
+          <t>89,75; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,26; 100,0</t>
+          <t>95,31; 100,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,33; 100,0</t>
+          <t>96,66; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>95,47; 100,0</t>
+          <t>94,67; 100,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,3; 100,0</t>
+          <t>95,15; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,79; 100,0</t>
+          <t>85,17; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>96,77; 100,0</t>
+          <t>96,85; 100,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>90,46; 100,0</t>
+          <t>90,25; 100,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,79</t>
+          <t>98,05; 99,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,77; 100,0</t>
+          <t>98,56; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>97,22; 99,72</t>
+          <t>97,44; 99,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,86</t>
+          <t>98,57; 99,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>99,25; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>98,07; 99,68</t>
+          <t>98,01; 99,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,15; 100,0</t>
+          <t>90,43; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100,0</t>
+          <t>92,9; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>92,38; 100,0</t>
+          <t>91,81; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,94; 100,0</t>
+          <t>94,91; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,25; 99,39</t>
+          <t>89,39; 99,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,66; 99,83</t>
+          <t>93,48; 99,83</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,12; 100,0</t>
+          <t>89,0; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>77,09; 100,0</t>
+          <t>78,83; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,05; 100,0</t>
+          <t>78,25; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>86,53; 100,0</t>
+          <t>87,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,96; 100,0</t>
+          <t>80,65; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,35; 100,0</t>
+          <t>85,55; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>84,41; 100,0</t>
+          <t>85,51; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,46; 100,0</t>
+          <t>92,85; 100,0</t>
         </is>
       </c>
     </row>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,67; 100,0</t>
+          <t>92,89; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>93,68; 100,0</t>
+          <t>91,59; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,75; 100,0</t>
+          <t>91,74; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>95,31; 100,0</t>
+          <t>94,89; 100,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,66; 100,0</t>
+          <t>95,67; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>94,67; 100,0</t>
+          <t>95,74; 100,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,15; 100,0</t>
+          <t>95,32; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>85,17; 100,0</t>
+          <t>84,71; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>91,0; 100,0</t>
+          <t>90,12; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,97; 100,0</t>
+          <t>94,3; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>96,85; 100,0</t>
+          <t>96,73; 100,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>90,25; 100,0</t>
+          <t>88,04; 100,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,66; 100,0</t>
+          <t>94,24; 100,0</t>
         </is>
       </c>
     </row>
@@ -1844,22 +1844,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,8</t>
+          <t>98,04; 99,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>97,44; 99,72</t>
+          <t>96,89; 99,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97,65; 99,78</t>
+          <t>97,53; 99,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,68; 99,56</t>
+          <t>97,53; 99,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,57; 99,86</t>
+          <t>98,62; 99,85</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>99,15; 100,0</t>
+          <t>99,19; 100,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,66</t>
+          <t>98,1; 99,66</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,54</t>
+          <t>98,2; 99,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,23%</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,39; 99,66</t>
+          <t>89,3; 99,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,48; 99,83</t>
+          <t>93,75; 99,82</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>97,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>98,95%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,0; 100,0</t>
+          <t>89,17; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>94,35; 100,0</t>
+          <t>94,16; 100,0</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,72; 100</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>98,62; 100</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,83; 100,0</t>
+          <t>78,66; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,25; 100,0</t>
+          <t>78,31; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 100,0</t>
+          <t>87,56; 100,0</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>98,57%</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,55; 100,0</t>
+          <t>85,53; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,85; 100,0</t>
+          <t>92,89; 100,0</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,12; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>94,16; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,24; 100,0</t>
+          <t>94,25; 100,0</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,09%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,78</t>
+          <t>97,71; 99,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,58; 99,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,56</t>
+          <t>98,27; 99,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,43; 100,0</t>
+          <t>88,36; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +735,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,9; 100,0</t>
+          <t>91,2; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -764,7 +765,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>91,81; 100,0</t>
+          <t>93,66; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +775,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>94,91; 100,0</t>
+          <t>95,92; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,3; 99,63</t>
+          <t>88,9; 99,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,75; 99,82</t>
+          <t>93,99; 99,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>89,17; 100,0</t>
+          <t>91,41; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>94,16; 100,0</t>
+          <t>93,31; 100,0</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,66; 100,0</t>
+          <t>80,51; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,31; 100,0</t>
+          <t>81,26; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,56; 100,0</t>
+          <t>84,83; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,7 +1435,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,65; 100,0</t>
+          <t>76,83; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>85,53; 100,0</t>
+          <t>85,54; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>85,51; 100,0</t>
+          <t>84,58; 100,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>92,89; 100,0</t>
+          <t>92,38; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,89; 100,0</t>
+          <t>92,93; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,59; 100,0</t>
+          <t>92,49; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1594,7 +1595,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,74; 100,0</t>
+          <t>90,53; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1605,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>94,89; 100,0</t>
+          <t>95,54; 100,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95,67; 100,0</t>
+          <t>96,63; 100,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>95,74; 100,0</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,7 +1705,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>95,32; 100,0</t>
+          <t>94,57; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,12 +1715,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,71; 100,0</t>
+          <t>84,89; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,32; 100,0</t>
+          <t>91,19; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,12 +1740,12 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>94,16; 100,0</t>
+          <t>94,19; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>96,73; 100,0</t>
+          <t>96,78; 100,0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1754,12 +1755,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>88,04; 100,0</t>
+          <t>89,09; 100,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,25; 100,0</t>
+          <t>95,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -1844,22 +1845,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,09; 99,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,86; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,7</t>
+          <t>97,47; 99,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97,71; 99,79</t>
+          <t>97,9; 99,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1874,32 +1875,32 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,6</t>
+          <t>97,64; 99,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,58; 99,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>99,19; 100,0</t>
+          <t>99,15; 100,0</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,66</t>
+          <t>97,88; 99,67</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>98,27; 99,59</t>
+          <t>98,27; 99,57</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que considera que tiene problemas de salud a causa del trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41873</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40373</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>57594</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24069</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30145</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>40884</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15755</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70492</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70518</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>98478</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39824</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37859; 42844</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38445; 40373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53420; 58577</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22487; 24069</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26600; 28619</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28094; 30145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38932; 40884</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14786; 15755</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>66931; 71463</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>68503; 70518</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>95401; 99461</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38532; 39824</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>72397</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>82786</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46280</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32688</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34315</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42697</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43822</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105084</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>90905</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>125483</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90102</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70265; 72397</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54585; 56590</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80779; 82786</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43604; 46280</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30853; 32688</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>32270; 34315</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40755; 42697</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40400; 45281</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>103029; 105084</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>88856; 90905</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>123478; 125483</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86212; 91542</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36615</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25305</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21254</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48492</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21724</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17935</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45926</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>58339</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43240</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>33755</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>94419</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34673; 36615</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23520; 25305</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19496; 21254</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45243; 49495</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19928; 21724</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16046; 17935</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10815; 12501</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44687; 45926</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56414; 58339</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41362; 43240</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31965; 33755</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89042; 95422</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58323</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47068</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40353</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29535</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29935</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80652</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>81029</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76603</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62400</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56365; 58323</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>45069; 47068</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30468; 32465</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38020; 40353</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20906; 22706</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27594; 29535</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28033; 29935</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>78313; 80652</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>79089; 81029</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>74593; 76603</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>60410; 62400</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>118639; 121005</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22954</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16169</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14870</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17045</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6970</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>11661</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10567</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29925</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27830</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20641</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27613</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21056; 22954</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14367; 16169</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12864; 14870</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14297; 17757</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5350; 6970</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9670; 11661</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4246; 5771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8928; 10986</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28023; 29925</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>25867; 27830</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18681; 20641</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24382; 28743</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>41810</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44339</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21399</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31616</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14094</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15184</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7427</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29333</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55903</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>59523</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28825</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>60949</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>39862; 41810</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42413; 44339</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17237; 22434</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>30106; 31616</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12317; 14094</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13388; 15184</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5700; 7427</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25847; 30215</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53958; 55903</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>57592; 59523</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>25256; 29860</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>57117; 61831</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86582</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>53617</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>78342</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>73178</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>43535</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46380</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>54570</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70527</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>130117</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>99997</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>132912</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>143705</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>82199; 88448</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>50342; 54430</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>76199; 78342</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>71204; 73178</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>41644; 43535</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>44410; 46380</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>50408; 55682</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>69227; 70527</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>126092; 131983</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>97415; 100810</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>127701; 134024</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>142121; 143705</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>107897</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>47179</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>37402</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>55776</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>49786</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>30672</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21400</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>54016</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>157683</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>77851</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>58802</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>109792</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>103001; 108915</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>45218; 47179</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>33339; 39274</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>51756; 56757</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>47803; 49786</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>28508; 30672</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>19464; 21400</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>51530; 54710</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>153597; 158701</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>75780; 77851</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>54054; 60674</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>105916; 111467</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>468450</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>330639</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>346111</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>336809</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>215186</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>350600</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>688572</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>546466</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>561297</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>687409</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>463283; 471292</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>326996; 331452</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>341162; 349046</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>332373; 338806</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>218166; 220121</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>213747; 215828</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>210200; 216298</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>345853; 352800</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>682580; 691449</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>542649; 547279</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>554297; 564443</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>681710; 690759</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>